--- a/xlsx/水果_intext.xlsx
+++ b/xlsx/水果_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="497">
   <si>
     <t>水果</t>
   </si>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>農業</t>
+    <t>农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C</t>
   </si>
   <si>
-    <t>蘋果</t>
+    <t>苹果</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%99</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AA%B8%E6%AA%AC</t>
   </si>
   <si>
-    <t>檸檬</t>
+    <t>柠檬</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E9%BA%A5</t>
   </si>
   <si>
-    <t>小麥</t>
+    <t>小麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%AA%E8%8C%84</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%85%BA%E6%AF%9B%E8%8D%89%E5%B1%AC</t>
   </si>
   <si>
-    <t>腺毛草屬</t>
+    <t>腺毛草属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%83</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%86%E9%A1%9E</t>
   </si>
   <si>
-    <t>豆類</t>
+    <t>豆类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%84%E5%AD%90</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%86%E7%9B%86%E5%AD%90</t>
   </si>
   <si>
-    <t>覆盆子</t>
+    <t>复盆子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%9A%E5%90%88%E6%9E%9C</t>
@@ -407,9 +407,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B9%E6%9E%9C</t>
   </si>
   <si>
-    <t>苹果</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%A8</t>
   </si>
   <si>
@@ -443,19 +440,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%BF%E6%9E%9C</t>
   </si>
   <si>
-    <t>漿果</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%AE%E9%9C%A7</t>
   </si>
   <si>
-    <t>蓮霧</t>
+    <t>莲雾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%8A%E6%A1%83</t>
   </si>
   <si>
-    <t>楊桃</t>
+    <t>杨桃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E7%93%9C</t>
@@ -491,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E6%9E%9C</t>
   </si>
   <si>
-    <t>單果</t>
+    <t>单果</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E8%A7%92%E8%8C%B4%E9%A6%99</t>
@@ -527,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5</t>
   </si>
   <si>
-    <t>麥</t>
+    <t>麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%AC%E7%93%9C</t>
@@ -551,13 +545,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E8%8A%B1%E6%9E%9C</t>
   </si>
   <si>
-    <t>無花果</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B3%B3%E6%A2%A8</t>
   </si>
   <si>
-    <t>鳳梨</t>
+    <t>凤梨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9E%BA%E6%97%8B</t>
@@ -593,7 +584,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
@@ -605,7 +596,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>緬甸</t>
+    <t>缅甸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9A%E6%96%B0%E5%87%A0%E5%86%85%E4%BA%9A</t>
@@ -629,7 +620,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
@@ -641,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
@@ -707,13 +698,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E5%AD%90</t>
   </si>
   <si>
-    <t>種子</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%9C%E6%A8%B9</t>
   </si>
   <si>
-    <t>果樹</t>
+    <t>果树</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%9C%E9%A3%9F%E4%B8%BB%E4%B9%89</t>
@@ -767,7 +755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9%E5%BD%A2%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>植物形態學</t>
+    <t>植物形态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9%E5%88%86%E7%B1%BB%E5%AD%A6</t>
@@ -779,13 +767,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9%E7%94%9F%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>植物生理學</t>
+    <t>植物生理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E6%A4%8D%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>民族植物學</t>
+    <t>民族植物学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Plant_evolutionary_developmental_biology</t>
@@ -797,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9%E8%A7%A3%E5%89%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>植物解剖學</t>
+    <t>植物解剖学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9%E7%94%9F%E6%80%81%E5%AD%A6</t>
@@ -833,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9%E7%97%85%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>植物病理學</t>
+    <t>植物病理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%A4%8D%E7%89%A9%E5%AD%A6</t>
@@ -857,19 +845,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%B9%E6%9C%A8%E5%AD%B8</t>
   </si>
   <si>
-    <t>樹木學</t>
+    <t>树木学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%BB%E9%A1%9E</t>
   </si>
   <si>
-    <t>藻類</t>
+    <t>藻类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E8%89%B2%E7%B4%A0%E9%AB%94%E7%94%9F%E7%89%A9</t>
   </si>
   <si>
-    <t>原始色素體生物</t>
+    <t>原始色素体生物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%94%E8%97%93%E6%A4%8D%E7%89%A9</t>
@@ -899,7 +887,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E5%AD%90%E6%A4%8D%E7%89%A9</t>
   </si>
   <si>
-    <t>種子植物</t>
+    <t>种子植物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%B8%E5%AD%90%E6%A4%8D%E7%89%A9</t>
@@ -929,7 +917,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B8%E7%94%9F%E6%A4%8D%E7%89%A9</t>
   </si>
   <si>
-    <t>陸生植物</t>
+    <t>陆生植物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9%E7%BB%86%E8%83%9E</t>
@@ -941,7 +929,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B0%E8%83%9E%E5%A3%81</t>
   </si>
   <si>
-    <t>細胞壁</t>
+    <t>细胞壁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E7%B4%A0%E4%BD%93</t>
@@ -965,7 +953,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E7%94%9F%E8%B3%AA%E7%B5%B2</t>
   </si>
   <si>
-    <t>原生質絲</t>
+    <t>原生质丝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%B2%E8%83%9E</t>
@@ -1007,7 +995,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E5%AD%90</t>
   </si>
   <si>
-    <t>葉子</t>
+    <t>叶子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%8E</t>
@@ -1103,13 +1091,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%B1%E9%A0%AD_(%E8%8A%B1)</t>
   </si>
   <si>
-    <t>柱頭 (花)</t>
+    <t>柱头 (花)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%B8%E5%8D%B5%E5%99%A8</t>
   </si>
   <si>
-    <t>頸卵器</t>
+    <t>颈卵器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%84%E8%95%8A</t>
@@ -1127,7 +1115,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%85%8D%E5%AD%90%E9%AB%94</t>
   </si>
   <si>
-    <t>配子體</t>
+    <t>配子体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A2%E5%AD%90%E4%BD%93</t>
@@ -1151,7 +1139,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A8%E7%9A%AE%E8%A0%9F%E8%B3%AA</t>
   </si>
   <si>
-    <t>表皮蠟質</t>
+    <t>表皮蜡质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%94%E5%AD%94</t>
@@ -1211,7 +1199,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%B9%E6%B6%B2</t>
   </si>
   <si>
-    <t>樹液</t>
+    <t>树液</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%80%E7%B2%89</t>
@@ -1289,7 +1277,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9%E6%A8%99%E6%9C%AC%E9%A4%A8</t>
   </si>
   <si>
-    <t>植物標本館</t>
+    <t>植物标本馆</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Botanical_nomenclature</t>
@@ -1307,7 +1295,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9%E5%AD%B8%E5%90%8D%E5%91%BD%E5%90%8D%E6%B3%95</t>
   </si>
   <si>
-    <t>植物學名命名法</t>
+    <t>植物学名命名法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9%E5%AD%A6%E4%BD%9C%E8%80%85%E5%BC%95%E8%AF%81</t>
@@ -1325,7 +1313,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A4%8D%E7%89%A9%E5%91%BD%E5%90%8D%E6%B3%95%E8%A6%8F</t>
   </si>
   <si>
-    <t>國際植物命名法規</t>
+    <t>国际植物命名法规</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/International_Association_for_Plant_Taxonomy</t>
@@ -1367,7 +1355,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%92%E8%97%9D%E5%AD%B8</t>
   </si>
   <si>
-    <t>園藝學</t>
+    <t>园艺学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E4%B8%9A</t>
@@ -1409,7 +1397,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%8E%E6%9E%9C</t>
   </si>
   <si>
-    <t>穎果</t>
+    <t>颖果</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%87%E8%91%96%E6%9E%9C</t>
@@ -1421,9 +1409,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%A2%E6%9E%9C</t>
   </si>
   <si>
-    <t>莢果</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/en:Loment</t>
   </si>
   <si>
@@ -1433,9 +1418,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%85%E6%9E%9C</t>
   </si>
   <si>
-    <t>堅果</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BF%85%E6%9E%9C</t>
   </si>
   <si>
@@ -1457,7 +1439,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A4%87%E6%9E%9C</t>
   </si>
   <si>
-    <t>複果</t>
+    <t>复果</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A0%E6%9E%9C</t>
@@ -1469,15 +1451,12 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%BE%E6%9E%9C</t>
   </si>
   <si>
-    <t>乾果</t>
+    <t>干果</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%96%E6%9E%9C</t>
   </si>
   <si>
-    <t>颖果</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%9E%E6%9E%9C</t>
   </si>
   <si>
@@ -1505,7 +1484,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1517,7 +1496,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%9C%E5%AE%9E</t>
@@ -3782,7 +3761,7 @@
         <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3808,10 +3787,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>5</v>
@@ -3837,10 +3816,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>6</v>
@@ -3866,10 +3845,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>5</v>
@@ -3895,10 +3874,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -3924,10 +3903,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -3953,10 +3932,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G72" t="n">
         <v>5</v>
@@ -3982,10 +3961,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4011,10 +3990,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4040,10 +4019,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4069,10 +4048,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>3</v>
@@ -4098,10 +4077,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4127,10 +4106,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4156,10 +4135,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>18</v>
@@ -4185,10 +4164,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>5</v>
@@ -4214,10 +4193,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4243,10 +4222,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>14</v>
@@ -4272,10 +4251,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -4301,10 +4280,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4330,10 +4309,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4359,10 +4338,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4388,10 +4367,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>3</v>
@@ -4417,10 +4396,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4446,10 +4425,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4475,10 +4454,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4504,10 +4483,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4533,10 +4512,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4562,10 +4541,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4591,10 +4570,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4620,10 +4599,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4649,10 +4628,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -4678,10 +4657,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4707,10 +4686,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4736,10 +4715,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4765,10 +4744,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4794,10 +4773,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4823,10 +4802,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4852,10 +4831,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4881,10 +4860,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4910,10 +4889,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4939,10 +4918,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4968,10 +4947,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4997,10 +4976,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5026,10 +5005,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5055,10 +5034,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5084,10 +5063,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5113,10 +5092,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5142,10 +5121,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -5171,10 +5150,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5200,10 +5179,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5229,10 +5208,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5258,10 +5237,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="G117" t="n">
         <v>4</v>
@@ -5287,10 +5266,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5316,10 +5295,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5345,10 +5324,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5374,10 +5353,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5403,10 +5382,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5432,10 +5411,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>6</v>
@@ -5461,10 +5440,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>9</v>
@@ -5490,10 +5469,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5519,10 +5498,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5548,10 +5527,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>3</v>
@@ -5577,10 +5556,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>4</v>
@@ -5606,10 +5585,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5635,10 +5614,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5664,10 +5643,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -5693,10 +5672,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5722,10 +5701,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5751,10 +5730,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5780,10 +5759,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5809,10 +5788,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5838,10 +5817,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5867,10 +5846,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5896,10 +5875,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5925,10 +5904,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5954,10 +5933,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F141" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5983,10 +5962,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6012,10 +5991,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6041,10 +6020,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6070,10 +6049,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6099,10 +6078,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6128,10 +6107,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6157,10 +6136,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -6186,10 +6165,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6215,10 +6194,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -6273,10 +6252,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G152" t="n">
         <v>10</v>
@@ -6302,10 +6281,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6331,10 +6310,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6360,10 +6339,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6389,10 +6368,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6418,10 +6397,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6447,10 +6426,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -6476,10 +6455,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -6505,10 +6484,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6534,10 +6513,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6563,10 +6542,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6592,10 +6571,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6621,10 +6600,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6650,10 +6629,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6679,10 +6658,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6708,10 +6687,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6737,10 +6716,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G168" t="n">
         <v>13</v>
@@ -6766,10 +6745,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>4</v>
@@ -6795,10 +6774,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G170" t="n">
         <v>12</v>
@@ -6824,10 +6803,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6853,10 +6832,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6882,10 +6861,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6911,10 +6890,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6940,10 +6919,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6969,10 +6948,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G176" t="n">
         <v>11</v>
@@ -6998,10 +6977,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7027,10 +7006,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G178" t="n">
         <v>4</v>
@@ -7056,10 +7035,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7085,10 +7064,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7114,10 +7093,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7143,10 +7122,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F182" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7172,10 +7151,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F183" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G183" t="n">
         <v>5</v>
@@ -7201,10 +7180,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F184" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7230,10 +7209,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F185" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7259,10 +7238,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F186" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -7288,10 +7267,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F187" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -7317,10 +7296,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F188" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7346,10 +7325,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F189" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7375,10 +7354,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F190" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G190" t="n">
         <v>4</v>
@@ -7404,10 +7383,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F191" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7433,10 +7412,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F192" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7462,10 +7441,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F193" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7491,10 +7470,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F194" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7520,10 +7499,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F195" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7549,10 +7528,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F196" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7578,10 +7557,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F197" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7607,10 +7586,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F198" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7636,10 +7615,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F199" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7665,10 +7644,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F200" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7694,10 +7673,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F201" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7723,10 +7702,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F202" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7752,10 +7731,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F203" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7781,10 +7760,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F204" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7810,10 +7789,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F205" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7839,10 +7818,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F206" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G206" t="n">
         <v>3</v>
@@ -7868,10 +7847,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F207" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -7897,10 +7876,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F208" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G208" t="n">
         <v>3</v>
@@ -7926,10 +7905,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F209" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7955,10 +7934,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F210" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -7984,10 +7963,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F211" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8013,10 +7992,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F212" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G212" t="n">
         <v>9</v>
@@ -8042,10 +8021,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F213" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G213" t="n">
         <v>3</v>
@@ -8071,10 +8050,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F214" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8100,10 +8079,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F215" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8129,10 +8108,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F216" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8158,10 +8137,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F217" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8187,10 +8166,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F218" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8216,10 +8195,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F219" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8245,10 +8224,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F220" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8274,10 +8253,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F221" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8303,10 +8282,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F222" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8332,10 +8311,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F223" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8361,10 +8340,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F224" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8390,10 +8369,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F225" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8419,10 +8398,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F226" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8448,10 +8427,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F227" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8477,10 +8456,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F228" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8506,10 +8485,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F229" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8535,10 +8514,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F230" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8564,10 +8543,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F231" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8593,10 +8572,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F232" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8622,10 +8601,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F233" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8651,10 +8630,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F234" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8680,10 +8659,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F235" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8709,10 +8688,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F236" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8738,10 +8717,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F237" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8767,10 +8746,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F238" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -8796,10 +8775,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F239" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G239" t="n">
         <v>5</v>
@@ -8825,10 +8804,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F240" t="s">
-        <v>468</v>
+        <v>78</v>
       </c>
       <c r="G240" t="n">
         <v>3</v>
@@ -8854,10 +8833,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F241" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8883,10 +8862,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F242" t="s">
-        <v>472</v>
+        <v>139</v>
       </c>
       <c r="G242" t="n">
         <v>3</v>
@@ -8912,10 +8891,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F243" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -8941,10 +8920,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F244" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G244" t="n">
         <v>3</v>
@@ -8970,10 +8949,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F245" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9028,10 +9007,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F247" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G247" t="n">
         <v>4</v>
@@ -9057,10 +9036,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F248" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G248" t="n">
         <v>2</v>
@@ -9086,10 +9065,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F249" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G249" t="n">
         <v>2</v>
@@ -9115,10 +9094,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F250" t="s">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9144,10 +9123,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F251" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9173,10 +9152,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F252" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -9202,10 +9181,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F253" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G253" t="n">
         <v>2</v>
@@ -9231,10 +9210,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F254" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9260,10 +9239,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F255" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G255" t="n">
         <v>3</v>
@@ -9289,10 +9268,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F256" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9318,10 +9297,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F257" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9347,10 +9326,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F258" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G258" t="n">
         <v>12</v>
@@ -9376,10 +9355,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F259" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
